--- a/vendor/pieni/site/views/docs/sync/sync.xlsx
+++ b/vendor/pieni/site/views/docs/sync/sync.xlsx
@@ -28,14 +28,77 @@
     <t xml:space="preserve">overview</t>
   </si>
   <si>
-    <t xml:space="preserve">データを同期する
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;データを同期する&lt;/p&gt;
+&lt;p&gt;
+任意の形式でのデータ同期を提供します。&lt;br&gt;
+ハンドラが1個以上のドライバを持ち動作します。&lt;br&gt;
+\pieni\sync\Driverはインターフェイスであり、\pieni\sync\JsonはJSON形式、\pieni\sync\ExcelはExcel形式での実装です。&lt;br&gt;
+&lt;/p&gt;
+&lt;h3&gt;読み込み要求&lt;/h3&gt;
+&lt;p&gt;
+読み込み要求時、ハンドラは全てのドライバに更新日時を問い合わせ、最新のハンドラからデータを読み込み返します。&lt;br&gt;
+また、他のドライバには最新のデータを書き込みと更新日時変更を試みます。&lt;br&gt;
+&lt;/p&gt;
+&lt;h3&gt;更新日時&lt;/h3&gt;
+&lt;p&gt;
+更新日時はUNIXタイムスタンプですが、ドライバはデータを持たないとき-1を返します。&lt;br&gt;
+常に0を返すことで、他の全てのドライバがデータを持たないときのみ読み込まれるドライバを実装できます。&lt;br&gt;
+&lt;/p&gt;
+&lt;h3&gt;書き込み要求&lt;/h3&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;
+更新日時として常に0を返し、書き込み要求時に何も行わない、データ実態を持たないドライバを実装できます。&lt;br&gt;
+このようなドライバをハンドラに持たせることでデータが存在しなければ、デフォルトのデータを生成するアプリケーションを実現できます。&lt;br&gt;
+&lt;/p&gt;
 &lt;h2&gt;Classes&lt;/h2&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="../overview/sync/Handler"&gt;Handler&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="../overview/sync/Driver"&gt;Driver&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="../overview/sync/Json"&gt;Json&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;&lt;a href="../overview/sync/Handler"&gt;Handler&lt;/a&gt; - ハンドラ&lt;/li&gt;
+&lt;li&gt;&lt;a href="../overview/sync/Driver"&gt;Driver&lt;/a&gt; - ドライバインターフェイス&lt;/li&gt;
+&lt;li&gt;&lt;a href="../overview/sync/Json"&gt;Json&lt;/a&gt; - JSON形式のドライバ実装&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;&lt;a href="../overview/sync/Excel"&gt;Excel&lt;/a&gt; - Excel形式のドライバ実装&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/ul&gt;
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -45,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -73,6 +136,11 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,14 +218,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.47159090909091"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="225.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="248.346590909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.375"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -165,7 +233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="383.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
